--- a/data/trans_orig/P1423_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1423_2015-Provincia-trans_orig.xlsx
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>92,68%</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>94,91%</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>96,83%</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,66%</t>
         </is>
       </c>
     </row>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,47%</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2244,12 +2244,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2294,12 +2294,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>94,34%</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,73%</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -2849,12 +2849,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>85,87%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>93,47%</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3066,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,82%</t>
         </is>
       </c>
     </row>
